--- a/NformTester/NformTester/keywordscripts/TST931_InstallViewerOnly.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST931_InstallViewerOnly.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="2535" windowWidth="18195" windowHeight="14070"/>
+    <workbookView xWindow="-225" yWindow="-330" windowWidth="15480" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Scripts" sheetId="3" r:id="rId1"/>
@@ -3626,10 +3626,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>C:\\Nform_4.7.2\\SE\\Nform_4.7.2_Setup.exe</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Expand</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3639,6 +3635,10 @@
   </si>
   <si>
     <t>VerifyNotContains</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\\Nform_4.8.1_ET\\SE\\Nform_4.8.1_ET_Setup.exe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4574,13 +4574,13 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.625" customWidth="1"/>
-    <col min="2" max="2" width="24.125" customWidth="1"/>
+    <col min="2" max="2" width="27.75" customWidth="1"/>
     <col min="5" max="5" width="27.75" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="18.875" customWidth="1"/>
@@ -4638,7 +4638,7 @@
         <v>753</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -15359,7 +15359,7 @@
         <v>5</v>
       </c>
       <c r="CI3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="CJ3" t="s">
         <v>6</v>
@@ -16508,7 +16508,7 @@
         <v>4</v>
       </c>
       <c r="RB3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="RC3" t="s">
         <v>4</v>
@@ -17483,7 +17483,7 @@
         <v>4</v>
       </c>
       <c r="ADO3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="ADP3" t="s">
         <v>5</v>
@@ -17594,7 +17594,7 @@
         <v>4</v>
       </c>
       <c r="AEZ3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="AFA3" t="s">
         <v>6</v>
@@ -17606,7 +17606,7 @@
         <v>6</v>
       </c>
       <c r="AFD3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="AFE3" t="s">
         <v>6</v>
@@ -25465,19 +25465,19 @@
         <v>8</v>
       </c>
       <c r="AS7" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AT7" t="s">
         <v>8</v>
       </c>
       <c r="CH7" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="CI7" t="s">
         <v>7</v>
       </c>
       <c r="CO7" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="CY7" t="s">
         <v>8</v>
@@ -25486,7 +25486,7 @@
         <v>8</v>
       </c>
       <c r="DF7" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="DG7" t="s">
         <v>8</v>
@@ -25582,7 +25582,7 @@
         <v>8</v>
       </c>
       <c r="FX7" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="GA7" t="s">
         <v>8</v>
@@ -25657,7 +25657,7 @@
         <v>6</v>
       </c>
       <c r="IQ7" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="IS7" t="s">
         <v>8</v>
@@ -25810,7 +25810,7 @@
         <v>8</v>
       </c>
       <c r="LI7" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="LJ7" t="s">
         <v>8</v>
@@ -25825,7 +25825,7 @@
         <v>8</v>
       </c>
       <c r="LV7" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="LZ7" t="s">
         <v>6</v>
@@ -25840,7 +25840,7 @@
         <v>8</v>
       </c>
       <c r="MH7" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="MI7" t="s">
         <v>8</v>
@@ -25891,7 +25891,7 @@
         <v>8</v>
       </c>
       <c r="NL7" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="NR7" t="s">
         <v>8</v>
@@ -25957,7 +25957,7 @@
         <v>8</v>
       </c>
       <c r="PQ7" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="PR7" t="s">
         <v>8</v>
@@ -26008,7 +26008,7 @@
         <v>8</v>
       </c>
       <c r="RD7" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="RT7" t="s">
         <v>8</v>
@@ -26080,7 +26080,7 @@
         <v>8</v>
       </c>
       <c r="TF7" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="TL7" t="s">
         <v>8</v>
@@ -26281,16 +26281,16 @@
         <v>6</v>
       </c>
       <c r="YZ7" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="ZA7" t="s">
         <v>8</v>
       </c>
       <c r="ZG7" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="ZH7" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="ZI7" t="s">
         <v>8</v>
@@ -26323,7 +26323,7 @@
         <v>8</v>
       </c>
       <c r="ZW7" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AAA7" t="s">
         <v>8</v>
@@ -26335,7 +26335,7 @@
         <v>6</v>
       </c>
       <c r="AAK7" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AAL7" t="s">
         <v>6</v>
@@ -26380,7 +26380,7 @@
         <v>8</v>
       </c>
       <c r="ACI7" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="ACL7" t="s">
         <v>6</v>
@@ -26392,13 +26392,13 @@
         <v>6</v>
       </c>
       <c r="ACP7" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="ACT7" t="s">
         <v>8</v>
       </c>
       <c r="ADK7" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="ADL7" t="s">
         <v>6</v>
@@ -26413,7 +26413,7 @@
         <v>7</v>
       </c>
       <c r="ADP7" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AEC7" t="s">
         <v>6</v>
@@ -26464,7 +26464,7 @@
         <v>8</v>
       </c>
       <c r="AFY7" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AGK7" t="s">
         <v>8</v>
@@ -26497,13 +26497,13 @@
         <v>8</v>
       </c>
       <c r="AHW7" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AID7" t="s">
         <v>8</v>
       </c>
       <c r="AIP7" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AIX7" t="s">
         <v>8</v>
@@ -26512,13 +26512,13 @@
         <v>8</v>
       </c>
       <c r="AJH7" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AJQ7" t="s">
         <v>8</v>
       </c>
       <c r="AJR7" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AJS7" t="s">
         <v>8</v>
@@ -26574,26 +26574,26 @@
     </row>
     <row r="8" spans="1:1014">
       <c r="AS8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="CH8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="CI8" t="s">
         <v>8</v>
       </c>
       <c r="CO8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="DF8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="FI8" t="s">
+        <v>798</v>
+      </c>
+      <c r="FX8" t="s">
         <v>799</v>
       </c>
-      <c r="FX8" t="s">
-        <v>800</v>
-      </c>
       <c r="IJ8" t="s">
         <v>7</v>
       </c>
@@ -26601,70 +26601,70 @@
         <v>7</v>
       </c>
       <c r="IQ8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="LI8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="LV8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="LZ8" t="s">
         <v>7</v>
       </c>
       <c r="MG8" t="s">
+        <v>798</v>
+      </c>
+      <c r="MH8" t="s">
         <v>799</v>
       </c>
-      <c r="MH8" t="s">
-        <v>800</v>
-      </c>
       <c r="NL8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="PQ8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="PV8" t="s">
+        <v>798</v>
+      </c>
+      <c r="QS8" t="s">
+        <v>798</v>
+      </c>
+      <c r="RB8" t="s">
+        <v>8</v>
+      </c>
+      <c r="RD8" t="s">
         <v>799</v>
       </c>
-      <c r="QS8" t="s">
+      <c r="TF8" t="s">
         <v>799</v>
       </c>
-      <c r="RB8" t="s">
-        <v>8</v>
-      </c>
-      <c r="RD8" t="s">
-        <v>800</v>
-      </c>
-      <c r="TF8" t="s">
-        <v>800</v>
-      </c>
       <c r="YY8" t="s">
         <v>7</v>
       </c>
       <c r="YZ8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="ZG8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="ZH8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="ZW8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="AAJ8" t="s">
         <v>7</v>
       </c>
       <c r="AAK8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="AAL8" t="s">
         <v>7</v>
       </c>
       <c r="ACI8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="ACL8" t="s">
         <v>7</v>
@@ -26676,10 +26676,10 @@
         <v>7</v>
       </c>
       <c r="ACP8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="ADK8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="ADL8" t="s">
         <v>7</v>
@@ -26688,7 +26688,7 @@
         <v>8</v>
       </c>
       <c r="ADP8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="AEC8" t="s">
         <v>7</v>
@@ -26703,28 +26703,28 @@
         <v>8</v>
       </c>
       <c r="AFY8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="AHW8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="AIP8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="AJH8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="AJR8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="9" spans="1:1014">
       <c r="CI9" t="s">
+        <v>798</v>
+      </c>
+      <c r="FI9" t="s">
         <v>799</v>
       </c>
-      <c r="FI9" t="s">
-        <v>800</v>
-      </c>
       <c r="IJ9" t="s">
         <v>8</v>
       </c>
@@ -26735,16 +26735,16 @@
         <v>8</v>
       </c>
       <c r="MG9" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="PV9" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="QS9" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="RB9" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="YY9" t="s">
         <v>8</v>
@@ -26768,7 +26768,7 @@
         <v>8</v>
       </c>
       <c r="ADO9" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AEC9" t="s">
         <v>8</v>
@@ -26777,27 +26777,27 @@
         <v>8</v>
       </c>
       <c r="AEZ9" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AFD9" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="10" spans="1:1014">
       <c r="CI10" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="RB10" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="ADO10" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="AEZ10" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="AFD10" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
   </sheetData>

--- a/NformTester/NformTester/keywordscripts/TST931_InstallViewerOnly.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST931_InstallViewerOnly.xlsx
@@ -3638,7 +3638,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C:\\Nform_4.8.1_ET\\SE\\Nform_4.8.1_ET_Setup.exe</t>
+    <t>C:\\Nform_4.8.1\\SE\\Nform_4.8.1_Setup.exe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4574,7 +4574,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/NformTester/NformTester/keywordscripts/TST931_InstallViewerOnly.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST931_InstallViewerOnly.xlsx
@@ -1200,7 +1200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7113" uniqueCount="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7114" uniqueCount="802">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3622,23 +3622,27 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>Expand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VerifyContains</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VerifyNotContains</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Running Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>msiexec /i [Name].msi /l*v install.log</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Expand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VerifyContains</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VerifyNotContains</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:\\Nform_4.8.1\\SE\\Nform_4.8.1_Setup.exe</t>
+    <t>C:\\Nform_4.9.1_ET\\SE\\Nform_4.9.1_ET_Setup.exe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4571,10 +4575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4638,7 +4642,7 @@
         <v>753</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -4752,7 +4756,7 @@
         <v>759</v>
       </c>
       <c r="B6" s="8">
-        <v>41045</v>
+        <v>41445</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
@@ -4809,9 +4813,9 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="B8" s="3"/>
+        <v>799</v>
+      </c>
+      <c r="B8" s="7"/>
       <c r="C8" s="4">
         <v>7</v>
       </c>
@@ -4838,11 +4842,9 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2" t="s">
-        <v>762</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>763</v>
-      </c>
+        <v>761</v>
+      </c>
+      <c r="B9" s="3"/>
       <c r="C9" s="4">
         <v>8</v>
       </c>
@@ -4868,8 +4870,12 @@
       <c r="O9" s="14"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
+      <c r="A10" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>763</v>
+      </c>
       <c r="C10" s="4">
         <v>9</v>
       </c>
@@ -4895,10 +4901,8 @@
       <c r="O10" s="14"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="B11" s="12"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="4">
         <v>10</v>
       </c>
@@ -4925,7 +4929,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="4">
@@ -4954,7 +4958,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="4">
@@ -4981,7 +4985,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="13">
@@ -5010,7 +5014,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="13">
@@ -5037,7 +5041,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="13">
@@ -5065,10 +5069,10 @@
       <c r="O16" s="14"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="2"/>
-      <c r="B17" s="12" t="s">
-        <v>770</v>
-      </c>
+      <c r="A17" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="B17" s="12"/>
       <c r="C17" s="13">
         <v>16</v>
       </c>
@@ -5096,7 +5100,7 @@
     <row r="18" spans="1:15">
       <c r="A18" s="2"/>
       <c r="B18" s="12" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C18" s="13">
         <v>17</v>
@@ -5121,11 +5125,9 @@
       <c r="O18" s="14"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="2" t="s">
-        <v>772</v>
-      </c>
+      <c r="A19" s="2"/>
       <c r="B19" s="12" t="s">
-        <v>763</v>
+        <v>771</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="6"/>
@@ -5143,9 +5145,11 @@
     </row>
     <row r="20" spans="1:15" ht="15">
       <c r="A20" s="2" t="s">
-        <v>773</v>
-      </c>
-      <c r="B20" s="12"/>
+        <v>772</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>763</v>
+      </c>
       <c r="C20" s="13"/>
       <c r="D20" s="5"/>
       <c r="E20" s="4"/>
@@ -5162,7 +5166,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="13"/>
@@ -5180,8 +5184,10 @@
       <c r="O21" s="14"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
+      <c r="A22" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="B22" s="12"/>
       <c r="C22" s="13"/>
       <c r="D22" s="6"/>
       <c r="E22" s="4"/>
@@ -5230,9 +5236,13 @@
       <c r="N24" s="15"/>
       <c r="O24" s="14"/>
     </row>
-    <row r="30" spans="1:15">
-      <c r="B30" t="s">
-        <v>796</v>
+    <row r="25" spans="1:15">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="B31" t="s">
+        <v>800</v>
       </c>
     </row>
   </sheetData>
@@ -15359,7 +15369,7 @@
         <v>5</v>
       </c>
       <c r="CI3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="CJ3" t="s">
         <v>6</v>
@@ -16508,7 +16518,7 @@
         <v>4</v>
       </c>
       <c r="RB3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="RC3" t="s">
         <v>4</v>
@@ -17483,7 +17493,7 @@
         <v>4</v>
       </c>
       <c r="ADO3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="ADP3" t="s">
         <v>5</v>
@@ -17594,7 +17604,7 @@
         <v>4</v>
       </c>
       <c r="AEZ3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="AFA3" t="s">
         <v>6</v>
@@ -17606,7 +17616,7 @@
         <v>6</v>
       </c>
       <c r="AFD3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="AFE3" t="s">
         <v>6</v>
@@ -25465,19 +25475,19 @@
         <v>8</v>
       </c>
       <c r="AS7" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="AT7" t="s">
         <v>8</v>
       </c>
       <c r="CH7" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="CI7" t="s">
         <v>7</v>
       </c>
       <c r="CO7" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="CY7" t="s">
         <v>8</v>
@@ -25486,7 +25496,7 @@
         <v>8</v>
       </c>
       <c r="DF7" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="DG7" t="s">
         <v>8</v>
@@ -25582,7 +25592,7 @@
         <v>8</v>
       </c>
       <c r="FX7" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="GA7" t="s">
         <v>8</v>
@@ -25657,7 +25667,7 @@
         <v>6</v>
       </c>
       <c r="IQ7" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="IS7" t="s">
         <v>8</v>
@@ -25810,7 +25820,7 @@
         <v>8</v>
       </c>
       <c r="LI7" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="LJ7" t="s">
         <v>8</v>
@@ -25825,7 +25835,7 @@
         <v>8</v>
       </c>
       <c r="LV7" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="LZ7" t="s">
         <v>6</v>
@@ -25840,7 +25850,7 @@
         <v>8</v>
       </c>
       <c r="MH7" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="MI7" t="s">
         <v>8</v>
@@ -25891,7 +25901,7 @@
         <v>8</v>
       </c>
       <c r="NL7" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="NR7" t="s">
         <v>8</v>
@@ -25957,7 +25967,7 @@
         <v>8</v>
       </c>
       <c r="PQ7" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="PR7" t="s">
         <v>8</v>
@@ -26008,7 +26018,7 @@
         <v>8</v>
       </c>
       <c r="RD7" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="RT7" t="s">
         <v>8</v>
@@ -26080,7 +26090,7 @@
         <v>8</v>
       </c>
       <c r="TF7" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="TL7" t="s">
         <v>8</v>
@@ -26281,16 +26291,16 @@
         <v>6</v>
       </c>
       <c r="YZ7" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="ZA7" t="s">
         <v>8</v>
       </c>
       <c r="ZG7" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="ZH7" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="ZI7" t="s">
         <v>8</v>
@@ -26323,7 +26333,7 @@
         <v>8</v>
       </c>
       <c r="ZW7" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="AAA7" t="s">
         <v>8</v>
@@ -26335,7 +26345,7 @@
         <v>6</v>
       </c>
       <c r="AAK7" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="AAL7" t="s">
         <v>6</v>
@@ -26380,7 +26390,7 @@
         <v>8</v>
       </c>
       <c r="ACI7" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="ACL7" t="s">
         <v>6</v>
@@ -26392,13 +26402,13 @@
         <v>6</v>
       </c>
       <c r="ACP7" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="ACT7" t="s">
         <v>8</v>
       </c>
       <c r="ADK7" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="ADL7" t="s">
         <v>6</v>
@@ -26413,7 +26423,7 @@
         <v>7</v>
       </c>
       <c r="ADP7" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="AEC7" t="s">
         <v>6</v>
@@ -26464,7 +26474,7 @@
         <v>8</v>
       </c>
       <c r="AFY7" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="AGK7" t="s">
         <v>8</v>
@@ -26497,13 +26507,13 @@
         <v>8</v>
       </c>
       <c r="AHW7" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="AID7" t="s">
         <v>8</v>
       </c>
       <c r="AIP7" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="AIX7" t="s">
         <v>8</v>
@@ -26512,13 +26522,13 @@
         <v>8</v>
       </c>
       <c r="AJH7" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="AJQ7" t="s">
         <v>8</v>
       </c>
       <c r="AJR7" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="AJS7" t="s">
         <v>8</v>
@@ -26574,26 +26584,26 @@
     </row>
     <row r="8" spans="1:1014">
       <c r="AS8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="CH8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="CI8" t="s">
         <v>8</v>
       </c>
       <c r="CO8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="DF8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="FI8" t="s">
+        <v>797</v>
+      </c>
+      <c r="FX8" t="s">
         <v>798</v>
       </c>
-      <c r="FX8" t="s">
-        <v>799</v>
-      </c>
       <c r="IJ8" t="s">
         <v>7</v>
       </c>
@@ -26601,70 +26611,70 @@
         <v>7</v>
       </c>
       <c r="IQ8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="LI8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="LV8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="LZ8" t="s">
         <v>7</v>
       </c>
       <c r="MG8" t="s">
+        <v>797</v>
+      </c>
+      <c r="MH8" t="s">
         <v>798</v>
       </c>
-      <c r="MH8" t="s">
-        <v>799</v>
-      </c>
       <c r="NL8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="PQ8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="PV8" t="s">
+        <v>797</v>
+      </c>
+      <c r="QS8" t="s">
+        <v>797</v>
+      </c>
+      <c r="RB8" t="s">
+        <v>8</v>
+      </c>
+      <c r="RD8" t="s">
         <v>798</v>
       </c>
-      <c r="QS8" t="s">
+      <c r="TF8" t="s">
         <v>798</v>
       </c>
-      <c r="RB8" t="s">
-        <v>8</v>
-      </c>
-      <c r="RD8" t="s">
-        <v>799</v>
-      </c>
-      <c r="TF8" t="s">
-        <v>799</v>
-      </c>
       <c r="YY8" t="s">
         <v>7</v>
       </c>
       <c r="YZ8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="ZG8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="ZH8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="ZW8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AAJ8" t="s">
         <v>7</v>
       </c>
       <c r="AAK8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AAL8" t="s">
         <v>7</v>
       </c>
       <c r="ACI8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="ACL8" t="s">
         <v>7</v>
@@ -26676,10 +26686,10 @@
         <v>7</v>
       </c>
       <c r="ACP8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="ADK8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="ADL8" t="s">
         <v>7</v>
@@ -26688,7 +26698,7 @@
         <v>8</v>
       </c>
       <c r="ADP8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AEC8" t="s">
         <v>7</v>
@@ -26703,28 +26713,28 @@
         <v>8</v>
       </c>
       <c r="AFY8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AHW8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AIP8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AJH8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AJR8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="9" spans="1:1014">
       <c r="CI9" t="s">
+        <v>797</v>
+      </c>
+      <c r="FI9" t="s">
         <v>798</v>
       </c>
-      <c r="FI9" t="s">
-        <v>799</v>
-      </c>
       <c r="IJ9" t="s">
         <v>8</v>
       </c>
@@ -26735,16 +26745,16 @@
         <v>8</v>
       </c>
       <c r="MG9" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="PV9" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="QS9" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="RB9" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="YY9" t="s">
         <v>8</v>
@@ -26768,7 +26778,7 @@
         <v>8</v>
       </c>
       <c r="ADO9" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="AEC9" t="s">
         <v>8</v>
@@ -26777,27 +26787,27 @@
         <v>8</v>
       </c>
       <c r="AEZ9" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="AFD9" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="10" spans="1:1014">
       <c r="CI10" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="RB10" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="ADO10" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AEZ10" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AFD10" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
   </sheetData>

--- a/NformTester/NformTester/keywordscripts/TST931_InstallViewerOnly.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST931_InstallViewerOnly.xlsx
@@ -3642,7 +3642,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>C:\\Nform_4.9.1_ET\\SE\\Nform_4.9.1_ET_Setup.exe</t>
+    <t>$NformInstaller$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4578,7 +4578,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4679,7 +4679,7 @@
         <v>789</v>
       </c>
       <c r="F3" s="17">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -4739,7 +4739,7 @@
         <v>789</v>
       </c>
       <c r="F5" s="17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="4"/>
@@ -4799,7 +4799,7 @@
         <v>789</v>
       </c>
       <c r="F7" s="17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="4"/>
